--- a/biology/Zoologie/Chaoboridae/Chaoboridae.xlsx
+++ b/biology/Zoologie/Chaoboridae/Chaoboridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chaoboridae sont une famille de diptères nématocères du sous-ordre des Culicomorphes et de la super-famille des Culicoidea, comme les moustiques. Ils sont apparentés aux Corethrellidae et aux Chironomidae, dont ils se distinguent par la nervation des ailes. Ils comptent une cinquantaine d'espèces, réparties en 6 genres, dont un seul (Chaoborus) est cosmopolite et commun.
 Les adultes de certaines espèces sont comestibles. C'est le cas de Chaoborus edulis (edulis : comestible), qui est traditionnellement consommé au Malawi.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves et les adultes sont jaune pâle, pratiquement transparents. Ils font généralement de 2 à 10 mm de longueur. Les adultes ressemblent à des moustiques, mais leurs antennes sont composées de 15 segments et sont plumeuses chez le mâle.
 </t>
@@ -543,7 +557,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves vivent en groupe dans les lacs et les étangs. Elles nagent ordinairement entre deux eaux, grâce à des vésicules hydrostatiques et des palettes natatoires abdominales. Transparentes, elles sont parfois appelées «vers de cristal». 
 Ce sont des prédateurs. Elles se nourrissent de très petites proies, comme des daphnies et des larves de moustiques, qu'elles capturent grâce à leurs antennes modifiées. Ces antennes saisissent la proie et la conduisent jusqu'à la bouche. 
@@ -576,17 +592,19 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Selon ITIS      (20 octobre 2021)[1] :
+Selon ITIS      (20 octobre 2021) :
 sous-famille Chaoborinae
 genre Chaoborus Lichtenstein, 1800
 genre Cryophila Edwards, 1930
 genre Mochlonyx
 sous-famille Eucorethrinae
 genre Eucorethra
-Selon NCBI  (1 mars 2013)[2] :
+Selon NCBI  (1 mars 2013) :
 sous-famille Chaoborinae
 genre Chaoborus
 sous-famille Corethrellinae
@@ -621,9 +639,11 @@
           <t>Genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (1er mars 2013)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (1er mars 2013) :
 genre Australomochlonyx
 genre Baleiomyia
 genre Chaoborus
@@ -634,7 +654,7 @@
 genre Mesocorethra
 genre Mochlonyx
 genre Promochlonyx
-Selon Paleobiology Database                   (1er mars 2013)[4] :
+Selon Paleobiology Database                   (1er mars 2013) :
 genre Chachotosha
 genre Chaoburmus
 sous-famille Chironomapterinae
